--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,9 +450,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -455,9 +455,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -449,6 +449,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -457,6 +457,9 @@
       <c r="A3" t="str">
         <v>2</v>
       </c>
+      <c r="C3" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -465,6 +465,9 @@
       <c r="A4" t="str">
         <v>3</v>
       </c>
+      <c r="C4" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -473,6 +473,9 @@
       <c r="A5" t="str">
         <v>4</v>
       </c>
+      <c r="C5" t="str">
+        <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -452,6 +452,9 @@
       <c r="C2" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -533,8 +536,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>01000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -453,7 +453,7 @@
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -462,6 +462,9 @@
       </c>
       <c r="C3" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +540,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01000</v>
+        <v>012100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -464,7 +464,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -473,6 +473,9 @@
       </c>
       <c r="C4" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +543,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012100</v>
+        <v>0121310</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name003_2024-9-19.xlsx
+++ b/DateBase/orders/name003_2024-9-19.xlsx
@@ -475,7 +475,7 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -484,6 +484,9 @@
       </c>
       <c r="C5" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +546,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121310</v>
+        <v>01213141</v>
       </c>
     </row>
   </sheetData>
